--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3617491.676452523</v>
+        <v>3615604.09493612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>162.0432948109163</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.53425546355348</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>65.09474806312745</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>218.797736824674</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>185.8386997826084</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.8460297402139</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>56.75885316694696</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.21533678566971</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>107.1555119083925</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>47.90926526970435</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>6.34865682961788</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>146.278729911946</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>172.7067178467371</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.095553750566637</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.042680388413853</v>
+        <v>1.341035737734587</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965546</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437434</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.46899524962</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2279.707209887712</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1948.644322544141</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4510,25 +4510,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2623.882166307562</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2405.247499279625</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="U5" t="n">
-        <v>2151.485713917717</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="V5" t="n">
-        <v>2151.485713917717</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="W5" t="n">
-        <v>2151.485713917717</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.019955656637</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.1211692320162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>507.1211692320162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>507.1211692320162</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>507.1211692320162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>507.1211692320162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>507.1211692320162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.1211692320162</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1779.584617183059</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1410.622100242647</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1052.356401635896</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>666.5681490376521</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>659.6226482884487</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>241.6588401866355</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4805,19 +4805,19 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2522.073906861631</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1779.584617183059</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>261.3917961488082</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>261.3917961488082</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1443.14320309763</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1243.223193013183</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1019.437777802689</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>730.3091390162467</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,13 +5343,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5358,16 +5358,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609668</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>877.7643257444087</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>877.7643257444087</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>649.7747748463913</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028612</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745893</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181195</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181195</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745893</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>414.066367970586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387938</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>595.7148328008258</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008258</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441654</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,7 +6215,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>835.4163915387938</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387938</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.3668169895377</v>
+        <v>564.0654479498176</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430016</v>
+        <v>450.8901303032813</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430016</v>
+        <v>356.5343561723162</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>356.5343561723162</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>265.4052739557765</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981893</v>
+        <v>902.6804289818911</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652464</v>
+        <v>730.4517433652443</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030871</v>
+        <v>565.4200295030848</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,7 +6722,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028586</v>
@@ -7096,22 +7096,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
@@ -7123,7 +7123,7 @@
         <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>474.7746905116405</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>721.5398184181047</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,16 +7497,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7555,22 +7555,22 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>444.4889386861652</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.3657496970637</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622806</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.6093329825487</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504496</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>188.8856946302395</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>22.04402060665547</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>54.74901561812306</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338581</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>144.9821314154355</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>44.59484226146738</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518771</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>177.8003901193329</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>245.7889864942101</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>79.43092547709117</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>48.8408432116521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>251.0420895732614</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.5860431649663</v>
+        <v>123.2876878156458</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801227</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897923</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712984.4473832543</v>
+        <v>712984.4473832542</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="F2" t="n">
-        <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278762</v>
       </c>
       <c r="K2" t="n">
         <v>732279.8472214853</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.592877856</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="N2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="O2" t="n">
         <v>738937.5928778563</v>
       </c>
-      <c r="O2" t="n">
-        <v>738937.5928778565</v>
-      </c>
       <c r="P2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284552</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086699</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106718</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819115</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-99522.2321866237</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279206</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.3375153925</v>
+        <v>64432.8783894204</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922885</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922887</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922887</v>
+        <v>589592.9148663161</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922886</v>
+        <v>589592.9148663162</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996959</v>
+        <v>413169.6956737235</v>
       </c>
       <c r="K6" t="n">
-        <v>551149.8032873496</v>
+        <v>551131.3095494155</v>
       </c>
       <c r="L6" t="n">
-        <v>586286.1854287727</v>
+        <v>586286.1854287725</v>
       </c>
       <c r="M6" t="n">
-        <v>461828.0769958019</v>
+        <v>461828.0769958017</v>
       </c>
       <c r="N6" t="n">
-        <v>596629.0922296399</v>
+        <v>596629.0922296388</v>
       </c>
       <c r="O6" t="n">
-        <v>596629.0922296399</v>
+        <v>596629.0922296398</v>
       </c>
       <c r="P6" t="n">
         <v>552466.4869267932</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.40502554674151</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>202.9246923626428</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>101.881457345418</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>151.3535722945304</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.22219630222452</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>6.237368633410227</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>138.0840729817488</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>250.8850709382551</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>229.7641451696441</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285569</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>434.7644551367889</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>777.6835120841781</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>607.5603230950767</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341674</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377839</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>406.7164955186335</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412245</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043168</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>532.867037938573</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>339.4611332181788</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
